--- a/evaluation/evalResults.xlsx
+++ b/evaluation/evalResults.xlsx
@@ -2,15 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="38320" yWindow="-520" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="400" windowWidth="24800" windowHeight="17320" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="discovery" sheetId="1" r:id="rId1"/>
-    <sheet name="prefered" sheetId="3" r:id="rId2"/>
-    <sheet name="agree" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="favorites" sheetId="9" r:id="rId1"/>
+    <sheet name="discovery (2)" sheetId="8" r:id="rId2"/>
+    <sheet name="discovery" sheetId="1" r:id="rId3"/>
+    <sheet name="prefered" sheetId="3" r:id="rId4"/>
+    <sheet name="agree" sheetId="4" r:id="rId5"/>
+    <sheet name="agree (2)" sheetId="7" r:id="rId6"/>
+    <sheet name="context" sheetId="5" r:id="rId7"/>
+    <sheet name="context (2)" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -22,25 +26,341 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+  <si>
+    <t>Neither agree nor disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to learn how to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The application is intuitive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are situations in which the application is useful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values are expressed as percentage of the participants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The look and feel of the application is engaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are situations in which the application is useful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neither agree nor disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Browse the internet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read / write emails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read / write sms messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make a video phone call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up a location on a map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole hand tap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage of participants that discovered the technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Percentage of participants that favor the technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If together with friends / colleagues?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read documents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which activities do you use your smartphone for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if alone in a private space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if alone in a public space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If together with friends/colleagues?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rotating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximizing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finger gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 finger gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize reduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double tap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whole hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resize enlarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minimize then close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag to corner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press and hold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag to edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 fingers gesture, same hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 fingers gesture, both hands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commands</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-tech. users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech. users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hand gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 hands gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hand gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 hands gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to learn how to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The application is intuitive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values are expressed as percentage of the participants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>For which activities would you consider using the application instead of your smartphone,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The look and feel of the application is engaging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There are situations in which the application is useful.</t>
+    <t>Which activities do you use your smartphone for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if alone in a private space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if alone in a public space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Browse the internet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read / write emails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read / write sms messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up a location on a map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read documents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -49,202 +369,6 @@
   </si>
   <si>
     <t>Agree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neither agree nor disagree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disagree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strongly disagree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Browse the internet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read / write emails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look at pictures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read / write sms messages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Make a video phone call</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Play games</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look up a location on a map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read documents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which activities do you use your smartphone for?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if alone in a private space?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if alone in a public space?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If together with friends/colleagues?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rotating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resizing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Minimizing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Maximizing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exiting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finger gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 finger gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resize reduce</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>double tap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>whole hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resize enlarge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>minimize then close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drag to corner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>press and hold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drag to edge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 fingers gesture, same hand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 fingers gesture, both hands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Commands</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-tech. users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tech. users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 hand gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 hands gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 hand gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 hands gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is easy to use the application.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is easy to learn how to use the application.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The application is intuitive.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,11 +376,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="0"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -269,6 +389,10 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -278,10 +402,389 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -290,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -300,39 +803,254 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="7">
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor indexed="52"/>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
         </patternFill>
       </fill>
     </dxf>
@@ -662,10 +1380,580 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="38" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A1" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="35">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="34">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="44">
+        <v>54</v>
+      </c>
+      <c r="H3" s="7">
+        <v>9</v>
+      </c>
+      <c r="I3" s="34">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="45">
+        <v>54</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="34">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="36">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="34">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="37">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="34">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="35">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="34">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="35">
+        <v>69</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="34">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="44">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="45">
+        <v>62</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="34">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="41">
+        <v>38</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="H11" s="43">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0</v>
+      </c>
+      <c r="J11" s="43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C12:C13">
+    <cfRule type="cellIs" dxfId="6" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="5" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="38" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A1" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1">
+      <c r="A2" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="46">
+        <f t="shared" ref="C2:C14" si="0">(H2*100)/13</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="7">
+        <v>13</v>
+      </c>
+      <c r="I2" s="34">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="45">
+        <f t="shared" si="0"/>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="H3" s="7">
+        <v>11</v>
+      </c>
+      <c r="I3" s="34">
+        <v>4</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="35">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="H4" s="7">
+        <v>5</v>
+      </c>
+      <c r="I4" s="34">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="36">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="H5" s="7">
+        <v>9</v>
+      </c>
+      <c r="I5" s="34">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="37">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="H6" s="7">
+        <v>9</v>
+      </c>
+      <c r="I6" s="34">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1">
+      <c r="A7" s="44"/>
+      <c r="B7" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="44">
+        <f t="shared" si="0"/>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="H7" s="7">
+        <v>11</v>
+      </c>
+      <c r="I7" s="34">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="45">
+        <f t="shared" si="0"/>
+        <v>84.615384615384613</v>
+      </c>
+      <c r="H8" s="7">
+        <v>11</v>
+      </c>
+      <c r="I8" s="34">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="35">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="H9" s="7">
+        <v>6</v>
+      </c>
+      <c r="I9" s="34">
+        <v>2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="35">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="34">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="37">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="7">
+        <v>13</v>
+      </c>
+      <c r="I12" s="34">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="H14" s="43">
+        <v>0</v>
+      </c>
+      <c r="I14" s="42">
+        <v>0</v>
+      </c>
+      <c r="J14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C2:C14">
+    <cfRule type="cellIs" dxfId="4" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -681,30 +1969,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1">
         <f>(D2*100)/13</f>
@@ -722,10 +2010,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C15" si="0">(D3*100)/13</f>
@@ -743,7 +2031,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -761,7 +2049,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -779,10 +2067,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -800,7 +2088,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -818,10 +2106,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -839,7 +2127,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -857,7 +2145,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -875,7 +2163,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -893,10 +2181,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -914,10 +2202,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -935,7 +2223,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -953,7 +2241,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -973,7 +2261,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -982,13 +2269,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -1004,30 +2291,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C11" si="0">(D2*100)/13</f>
@@ -1046,7 +2333,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -1065,10 +2352,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -1087,7 +2374,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -1106,10 +2393,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -1128,7 +2415,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -1147,7 +2434,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -1166,7 +2453,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -1185,10 +2472,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -1207,7 +2494,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -1228,7 +2515,6 @@
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1237,7 +2523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K7"/>
@@ -1254,52 +2540,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="42" customHeight="1">
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6"/>
+      <c r="B1" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="48"/>
     </row>
     <row r="2" spans="1:11" ht="14" customHeight="1">
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="7"/>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="14" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B3" s="5">
         <f>(C3*100)/13</f>
@@ -1339,7 +2625,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:D7" si="0">(C4*100)/13</f>
@@ -1379,7 +2665,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -1419,7 +2705,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -1459,7 +2745,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -1508,7 +2794,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1517,331 +2802,554 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.28515625" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" style="7" customWidth="1"/>
+    <col min="2" max="6" width="6.140625" style="7" customWidth="1"/>
+    <col min="7" max="12" width="8.140625" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="20.28515625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="43" customHeight="1" thickBot="1">
+      <c r="A1" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14" customHeight="1">
+      <c r="A2" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="11">
+        <f t="shared" ref="B2:F5" si="0">(H2*100)/13</f>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="C2" s="12">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H2" s="7">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14" customHeight="1">
+      <c r="A3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="11">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="C3" s="12">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="D3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>6</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="14" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17">
+        <f>(H4*100)/13</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="C4" s="18">
+        <f>(I4*100)/13</f>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="D4" s="18">
+        <f>(J4*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <f>(K4*100)/13</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="F4" s="19">
+        <f>(L4*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14" customHeight="1" thickBot="1">
+      <c r="A5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="29">
+        <f t="shared" si="0"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="C5" s="30">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="D5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="31">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="32"/>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="4">
+    <mergeCell ref="C1"/>
+    <mergeCell ref="D1"/>
+    <mergeCell ref="E1"/>
+    <mergeCell ref="F1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:F5">
+    <cfRule type="cellIs" dxfId="3" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="8" customWidth="1"/>
-    <col min="2" max="9" width="6.140625" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="10.7109375" style="8"/>
+    <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
+    <col min="2" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" customHeight="1">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:9" ht="28" customHeight="1">
+      <c r="B2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9" ht="14" customHeight="1">
+      <c r="B3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" ht="28" customHeight="1">
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="14" customHeight="1">
-      <c r="B3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <f>(C4*100)/13</f>
         <v>76.92307692307692</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>(E4*100)/13</f>
         <v>69.230769230769226</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>9</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f>(G4*100)/13</f>
         <v>46.153846153846153</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>6</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <f>(I4*100)/13</f>
         <v>76.92307692307692</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
         <f t="shared" ref="B5:D11" si="0">(C5*100)/13</f>
         <v>69.230769230769226</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>9</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>46.153846153846153</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>6</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" ref="F5" si="1">(G5*100)/13</f>
         <v>23.076923076923077</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>3</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <f t="shared" ref="H5" si="2">(I5*100)/13</f>
         <v>23.076923076923077</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
         <f t="shared" si="0"/>
         <v>76.92307692307692</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>10</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>76.92307692307692</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>10</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" ref="F6" si="3">(G6*100)/13</f>
         <v>23.076923076923077</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <f t="shared" ref="H6" si="4">(I6*100)/13</f>
         <v>100</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7">
         <f t="shared" si="0"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>12</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>15.384615384615385</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" ref="F7" si="5">(G7*100)/13</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" ref="H7" si="6">(I7*100)/13</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
         <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>46.153846153846153</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>6</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" ref="F8" si="7">(G8*100)/13</f>
         <v>15.384615384615385</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f t="shared" ref="H8" si="8">(I8*100)/13</f>
         <v>30.76923076923077</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="7">
         <f t="shared" si="0"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>69.230769230769226</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>9</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" ref="F9" si="9">(G9*100)/13</f>
         <v>46.153846153846153</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>6</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <f t="shared" ref="H9" si="10">(I9*100)/13</f>
         <v>69.230769230769226</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7">
         <f t="shared" si="0"/>
         <v>92.307692307692307</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>53.846153846153847</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>7</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" ref="F10" si="11">(G10*100)/13</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>8</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <f t="shared" ref="H10" si="12">(I10*100)/13</f>
         <v>92.307692307692307</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="7">
         <f t="shared" si="0"/>
         <v>30.76923076923077</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>4</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <f t="shared" si="0"/>
         <v>61.53846153846154</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>8</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" ref="F11" si="13">(G11*100)/13</f>
         <v>38.46153846153846</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <f t="shared" ref="H11" si="14">(I11*100)/13</f>
         <v>61.53846153846154</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>8</v>
       </c>
     </row>
@@ -1855,13 +3363,320 @@
     <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B4:B11 D4:D11 F4:F11 H4:H11">
-    <cfRule type="cellIs" dxfId="0" priority="0" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="B4:I11">
+    <cfRule type="cellIs" dxfId="2" priority="0" stopIfTrue="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" style="7" customWidth="1"/>
+    <col min="2" max="5" width="10.140625" style="7" customWidth="1"/>
+    <col min="6" max="9" width="6.140625" style="7" customWidth="1"/>
+    <col min="10" max="16384" width="10.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1"/>
+    <row r="2" spans="1:13" ht="28" customHeight="1">
+      <c r="A2" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="43" thickBot="1">
+      <c r="A3" s="58"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" ref="B4:E10" si="0">(J4*100)/13</f>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="E4" s="26">
+        <f t="shared" si="0"/>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10</v>
+      </c>
+      <c r="K4" s="7">
+        <v>9</v>
+      </c>
+      <c r="L4" s="7">
+        <v>6</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="11">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="J5" s="7">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>76.92307692307692</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J6" s="7">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3</v>
+      </c>
+      <c r="M6" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="11">
+        <f t="shared" si="0"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J7" s="7">
+        <v>12</v>
+      </c>
+      <c r="K7" s="7">
+        <v>2</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="11">
+        <f t="shared" si="0"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="7">
+        <v>9</v>
+      </c>
+      <c r="L8" s="7">
+        <v>6</v>
+      </c>
+      <c r="M8" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="11">
+        <f t="shared" si="0"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>92.307692307692307</v>
+      </c>
+      <c r="J9" s="7">
+        <v>12</v>
+      </c>
+      <c r="K9" s="7">
+        <v>7</v>
+      </c>
+      <c r="L9" s="7">
+        <v>8</v>
+      </c>
+      <c r="M9" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1">
+      <c r="A10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="14">
+        <f t="shared" si="0"/>
+        <v>30.76923076923077</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="0"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="J10" s="7">
+        <v>4</v>
+      </c>
+      <c r="K10" s="7">
+        <v>8</v>
+      </c>
+      <c r="L10" s="7">
+        <v>5</v>
+      </c>
+      <c r="M10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K4:M10 F4:I10">
+    <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:E10">
+    <cfRule type="cellIs" dxfId="0" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/evaluation/evalResults.xlsx
+++ b/evaluation/evalResults.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="400" windowWidth="24800" windowHeight="17320" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="400" windowWidth="24800" windowHeight="17320" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="favorites" sheetId="9" r:id="rId1"/>
-    <sheet name="discovery (2)" sheetId="8" r:id="rId2"/>
-    <sheet name="discovery" sheetId="1" r:id="rId3"/>
-    <sheet name="prefered" sheetId="3" r:id="rId4"/>
-    <sheet name="agree" sheetId="4" r:id="rId5"/>
-    <sheet name="agree (2)" sheetId="7" r:id="rId6"/>
-    <sheet name="context" sheetId="5" r:id="rId7"/>
-    <sheet name="context (2)" sheetId="6" r:id="rId8"/>
+    <sheet name="likert" sheetId="10" r:id="rId1"/>
+    <sheet name="favorites" sheetId="9" r:id="rId2"/>
+    <sheet name="discovery (2)" sheetId="8" r:id="rId3"/>
+    <sheet name="discovery" sheetId="1" r:id="rId4"/>
+    <sheet name="prefered" sheetId="3" r:id="rId5"/>
+    <sheet name="agree" sheetId="4" r:id="rId6"/>
+    <sheet name="agree (2)" sheetId="7" r:id="rId7"/>
+    <sheet name="context" sheetId="5" r:id="rId8"/>
+    <sheet name="context (2)" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,207 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="91">
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-tech. users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tech. users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hand gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 hands gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 hand gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 hands gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to learn how to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The application is intuitive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primitive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For which activities would you consider using the application instead of your smartphone,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Which activities do you use your smartphone for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if alone in a private space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if alone in a public space?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Browse the internet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read / write emails</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look at pictures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read / write sms messages</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play games</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Look up a location on a map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Read documents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%
+Strongly agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%
+Agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>% Neither agree nor disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%
+Disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%
+Strongly disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to learn how to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The application is intuitive.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is easy to use the application.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are situations in which the application is useful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disagree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are situations in which the application is useful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values are expressed as percentage of the participants.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Closing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The look and feel of the application is engaging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are situations in which the application is useful.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>Neither agree nor disagree</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,30 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>It is easy to use the application.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is easy to learn how to use the application.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The application is intuitive.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There are situations in which the application is useful.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values are expressed as percentage of the participants.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Closing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,46 +249,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The look and feel of the application is engaging</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>There are situations in which the application is useful.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Neither agree nor disagree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Disagree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strongly disagree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Browse the internet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,122 +394,6 @@
   </si>
   <si>
     <t>Actions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total %</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Non-tech. users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tech. users</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 hand gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 hands gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 hand gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 hands gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is easy to use the application.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>It is easy to learn how to use the application.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The application is intuitive.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Values are expressed as percentage of the participants.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Primitive</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Technique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For which activities would you consider using the application instead of your smartphone,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Which activities do you use your smartphone for?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if alone in a private space?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if alone in a public space?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Browse the internet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read / write emails</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look at pictures</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read / write sms messages</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Play games</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Look up a location on a map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Read documents</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +401,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -393,6 +421,11 @@
       <sz val="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -402,7 +435,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -789,11 +822,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -872,18 +918,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -929,6 +963,9 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,13 +1000,79 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="53"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1380,246 +1483,274 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.28515625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="7"/>
+    <col min="1" max="1" width="32.5703125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="7.28515625" style="7" customWidth="1"/>
+    <col min="4" max="13" width="3.28515625" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="20.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A1" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="35" t="s">
+    <row r="1" spans="1:13" ht="29" customHeight="1">
+      <c r="B1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="K1" s="45"/>
+      <c r="L1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="45"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="D2" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="43">
+        <v>5</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="43">
+        <v>4</v>
+      </c>
+      <c r="H2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="35">
-        <v>38</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="I2" s="43">
+        <v>3</v>
+      </c>
+      <c r="J2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="43">
+        <v>2</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="56">
+        <v>4.46</v>
+      </c>
+      <c r="C3" s="56">
+        <v>1.08</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:F6" si="0">(E3*100)/13</f>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="E3" s="7">
+        <v>9</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="0"/>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H6" si="1">(I3*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J6" si="2">(K3*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L6" si="3">(M3*100)/13</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="M3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="56">
+        <v>3.85</v>
+      </c>
+      <c r="C4" s="56">
+        <v>1.07</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="I2" s="34">
-        <v>2</v>
-      </c>
-      <c r="J2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="44">
-        <v>54</v>
-      </c>
-      <c r="H3" s="7">
-        <v>9</v>
-      </c>
-      <c r="I3" s="34">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="G4" s="7">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="56">
+        <v>4.38</v>
+      </c>
+      <c r="C5" s="56">
+        <v>0.84</v>
+      </c>
+      <c r="D5" s="7">
+        <f>(E5*100)/13</f>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="E5" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="45" t="s">
+      <c r="F5" s="7">
+        <f>(G5*100)/13</f>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="G5" s="7">
+        <v>5</v>
+      </c>
+      <c r="H5" s="7">
+        <f>(I5*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <f>(K5*100)/13</f>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <f>(M5*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="45">
-        <v>54</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="34">
-        <v>3</v>
-      </c>
-      <c r="J4" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="36">
-        <v>62</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="34">
-        <v>3</v>
-      </c>
-      <c r="J5" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="37">
-        <v>8</v>
+      <c r="B6" s="56">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C6" s="56">
+        <v>1.07</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>53.846153846153847</v>
+      </c>
+      <c r="E6" s="7">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="34">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
       </c>
       <c r="J6" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="35">
-        <v>15</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="34">
-        <v>2</v>
-      </c>
-      <c r="J7" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="35">
-        <v>69</v>
-      </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="34">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="44">
-        <v>54</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="45">
-        <v>62</v>
-      </c>
-      <c r="H10" s="7">
-        <v>13</v>
-      </c>
-      <c r="I10" s="34">
-        <v>5</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="41">
-        <v>38</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="H11" s="43">
-        <v>0</v>
-      </c>
-      <c r="I11" s="42">
-        <v>0</v>
-      </c>
-      <c r="J11" s="43">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="3"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="C1"/>
+  <mergeCells count="5">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C12:C13">
-    <cfRule type="cellIs" dxfId="6" priority="0" stopIfTrue="1" operator="greaterThan">
-      <formula>60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="5" priority="0" stopIfTrue="1" operator="greaterThan">
-      <formula>50</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1633,6 +1764,258 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="34" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A1" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="31">
+        <v>38</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5</v>
+      </c>
+      <c r="I2" s="30">
+        <v>2</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="40">
+        <v>54</v>
+      </c>
+      <c r="H3" s="7">
+        <v>9</v>
+      </c>
+      <c r="I3" s="30">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="41">
+        <v>54</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="30">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="32">
+        <v>62</v>
+      </c>
+      <c r="H5" s="7">
+        <v>11</v>
+      </c>
+      <c r="I5" s="30">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="33">
+        <v>8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11</v>
+      </c>
+      <c r="I6" s="30">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="31">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="30">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="31">
+        <v>69</v>
+      </c>
+      <c r="H8" s="7">
+        <v>9</v>
+      </c>
+      <c r="I8" s="30">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="40">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="41">
+        <v>62</v>
+      </c>
+      <c r="H10" s="7">
+        <v>13</v>
+      </c>
+      <c r="I10" s="30">
+        <v>5</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="39" customFormat="1" ht="15" thickBot="1">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="37">
+        <v>38</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="H11" s="39">
+        <v>0</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0</v>
+      </c>
+      <c r="J11" s="39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="C1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C12:C13">
+    <cfRule type="cellIs" dxfId="7" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="cellIs" dxfId="6" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
@@ -1643,46 +2026,46 @@
   <cols>
     <col min="1" max="1" width="8.85546875" style="7" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="30" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="7" customWidth="1"/>
     <col min="6" max="16384" width="10.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="28" customHeight="1" thickBot="1">
-      <c r="A1" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="38" t="s">
-        <v>60</v>
+    <row r="1" spans="1:10" s="34" customFormat="1" ht="28" customHeight="1" thickBot="1">
+      <c r="A1" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="46">
+      <c r="A2" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="42">
         <f t="shared" ref="C2:C14" si="0">(H2*100)/13</f>
         <v>100</v>
       </c>
       <c r="H2" s="7">
         <v>13</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="30">
         <v>5</v>
       </c>
       <c r="J2" s="7">
@@ -1690,20 +2073,20 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="45">
+      <c r="A3" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="41">
         <f t="shared" si="0"/>
         <v>84.615384615384613</v>
       </c>
       <c r="H3" s="7">
         <v>11</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="30">
         <v>4</v>
       </c>
       <c r="J3" s="7">
@@ -1711,18 +2094,18 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="31">
         <f t="shared" si="0"/>
         <v>38.46153846153846</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="30">
         <v>2</v>
       </c>
       <c r="J4" s="7">
@@ -1730,18 +2113,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="36">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="32">
         <f t="shared" si="0"/>
         <v>69.230769230769226</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="30">
         <v>2</v>
       </c>
       <c r="J5" s="7">
@@ -1749,20 +2132,20 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="37">
+      <c r="A6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="33">
         <f t="shared" si="0"/>
         <v>69.230769230769226</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="30">
         <v>3</v>
       </c>
       <c r="J6" s="7">
@@ -1770,18 +2153,18 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="44">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="40">
         <f t="shared" si="0"/>
         <v>84.615384615384613</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="30">
         <v>3</v>
       </c>
       <c r="J7" s="7">
@@ -1789,20 +2172,20 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="45">
+      <c r="A8" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="41">
         <f t="shared" si="0"/>
         <v>84.615384615384613</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="30">
         <v>3</v>
       </c>
       <c r="J8" s="7">
@@ -1810,18 +2193,18 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="31">
         <f t="shared" si="0"/>
         <v>46.153846153846153</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="30">
         <v>2</v>
       </c>
       <c r="J9" s="7">
@@ -1829,18 +2212,18 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="31">
         <f t="shared" si="0"/>
         <v>69.230769230769226</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="30">
         <v>2</v>
       </c>
       <c r="J10" s="7">
@@ -1848,18 +2231,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="36">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="30">
         <v>0</v>
       </c>
       <c r="J11" s="7">
@@ -1867,20 +2250,20 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="37">
+      <c r="A12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="33">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="H12" s="7">
         <v>13</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="30">
         <v>5</v>
       </c>
       <c r="J12" s="7">
@@ -1888,41 +2271,41 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="35">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="30">
         <v>0</v>
       </c>
       <c r="J13" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="43" customFormat="1" ht="15" thickBot="1">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="H14" s="43">
-        <v>0</v>
-      </c>
-      <c r="I14" s="42">
-        <v>0</v>
-      </c>
-      <c r="J14" s="43">
+    <row r="14" spans="1:10" s="39" customFormat="1" ht="15" thickBot="1">
+      <c r="A14" s="37"/>
+      <c r="B14" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="H14" s="39">
+        <v>0</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0</v>
+      </c>
+      <c r="J14" s="39">
         <v>0</v>
       </c>
     </row>
@@ -1933,12 +2316,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:C14">
-    <cfRule type="cellIs" dxfId="4" priority="0" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="0" stopIfTrue="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1947,7 +2329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F15"/>
@@ -1969,30 +2351,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1">
         <f>(D2*100)/13</f>
@@ -2010,10 +2392,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C15" si="0">(D3*100)/13</f>
@@ -2031,7 +2413,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -2049,7 +2431,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -2067,10 +2449,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -2088,7 +2470,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -2106,10 +2488,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -2127,7 +2509,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -2145,7 +2527,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -2163,7 +2545,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -2181,10 +2563,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -2202,10 +2584,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -2223,7 +2605,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -2241,7 +2623,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -2269,7 +2651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F11"/>
@@ -2291,30 +2673,30 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" ht="33" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
         <f t="shared" ref="C2:C11" si="0">(D2*100)/13</f>
@@ -2333,7 +2715,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" si="0"/>
@@ -2352,10 +2734,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
@@ -2374,7 +2756,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
@@ -2393,10 +2775,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -2415,7 +2797,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -2434,7 +2816,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -2453,7 +2835,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" s="1" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -2472,10 +2854,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -2494,7 +2876,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -2523,7 +2905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K7"/>
@@ -2540,52 +2922,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="42" customHeight="1">
-      <c r="B1" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="48"/>
+      <c r="B1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="14" customHeight="1">
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="14" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5">
         <f>(C3*100)/13</f>
@@ -2625,7 +3007,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5">
         <f t="shared" ref="B4:D7" si="0">(C4*100)/13</f>
@@ -2665,7 +3047,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -2705,7 +3087,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
@@ -2745,7 +3127,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -2802,221 +3184,252 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.28515625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="7" customWidth="1"/>
-    <col min="2" max="6" width="6.140625" style="7" customWidth="1"/>
-    <col min="7" max="12" width="8.140625" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="20.28515625" style="7"/>
+    <col min="1" max="1" width="25.42578125" style="73" customWidth="1"/>
+    <col min="2" max="8" width="6.28515625" style="7" customWidth="1"/>
+    <col min="9" max="14" width="8.140625" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="20.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="43" customHeight="1" thickBot="1">
-      <c r="A1" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="49" t="s">
+    <row r="1" spans="1:14" ht="43" customHeight="1" thickBot="1">
+      <c r="A1" s="29"/>
+      <c r="B1" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14" customHeight="1">
+      <c r="A2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="58">
+        <v>4.46</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1.08</v>
+      </c>
+      <c r="D2" s="11">
+        <f>(J2*100)/13</f>
+        <v>69.230769230769226</v>
+      </c>
+      <c r="E2" s="12">
+        <f t="shared" ref="D2:H5" si="0">(K2*100)/13</f>
+        <v>23.076923076923077</v>
+      </c>
+      <c r="F2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J2" s="7">
+        <v>9</v>
+      </c>
+      <c r="K2" s="7">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
+      <c r="M2" s="7">
+        <v>0</v>
+      </c>
+      <c r="N2" s="7">
         <v>1</v>
       </c>
-      <c r="F1" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14" customHeight="1">
-      <c r="A2" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="11">
-        <f t="shared" ref="B2:F5" si="0">(H2*100)/13</f>
-        <v>69.230769230769226</v>
-      </c>
-      <c r="C2" s="12">
-        <f t="shared" si="0"/>
-        <v>23.076923076923077</v>
-      </c>
-      <c r="D2" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F2" s="13">
+    </row>
+    <row r="3" spans="1:14" ht="14" customHeight="1">
+      <c r="A3" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="60">
+        <v>3.85</v>
+      </c>
+      <c r="C3" s="61">
+        <v>1.07</v>
+      </c>
+      <c r="D3" s="11">
+        <f t="shared" si="0"/>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" si="0"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
         <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="H2" s="7">
-        <v>9</v>
-      </c>
-      <c r="I2" s="7">
-        <v>3</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
+      <c r="J3" s="7">
+        <v>5</v>
+      </c>
+      <c r="K3" s="7">
+        <v>6</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14" customHeight="1">
-      <c r="A3" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11">
-        <f t="shared" si="0"/>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="C3" s="12">
-        <f t="shared" si="0"/>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="D3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E3" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F3" s="13">
-        <f t="shared" si="0"/>
-        <v>7.6923076923076925</v>
-      </c>
-      <c r="H3" s="7">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7">
-        <v>6</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="14" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="17">
-        <f>(H4*100)/13</f>
+    <row r="4" spans="1:14" ht="14" customHeight="1">
+      <c r="A4" s="70" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="60">
+        <v>4.38</v>
+      </c>
+      <c r="C4" s="61">
+        <v>0.84</v>
+      </c>
+      <c r="D4" s="17">
+        <f>(J4*100)/13</f>
         <v>53.846153846153847</v>
-      </c>
-      <c r="C4" s="18">
-        <f>(I4*100)/13</f>
-        <v>38.46153846153846</v>
-      </c>
-      <c r="D4" s="18">
-        <f>(J4*100)/13</f>
-        <v>0</v>
       </c>
       <c r="E4" s="18">
         <f>(K4*100)/13</f>
+        <v>38.46153846153846</v>
+      </c>
+      <c r="F4" s="18">
+        <f>(L4*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <f>(M4*100)/13</f>
         <v>7.6923076923076925</v>
       </c>
-      <c r="F4" s="19">
-        <f>(L4*100)/13</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
+      <c r="H4" s="19">
+        <f>(N4*100)/13</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
         <v>7</v>
       </c>
-      <c r="I4" s="7">
+      <c r="K4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
         <v>1</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="14" customHeight="1" thickBot="1">
-      <c r="A5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="29">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="68" customFormat="1" ht="14" customHeight="1" thickBot="1">
+      <c r="A5" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="63">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="C5" s="64">
+        <v>1.07</v>
+      </c>
+      <c r="D5" s="65">
         <f t="shared" si="0"/>
         <v>53.846153846153847</v>
       </c>
-      <c r="C5" s="30">
+      <c r="E5" s="66">
         <f t="shared" si="0"/>
         <v>38.46153846153846</v>
       </c>
-      <c r="D5" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="31">
+      <c r="F5" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="67">
         <f t="shared" si="0"/>
         <v>7.6923076923076925</v>
       </c>
-      <c r="H5" s="7">
+      <c r="J5" s="68">
         <v>7</v>
       </c>
-      <c r="I5" s="7">
+      <c r="K5" s="68">
         <v>5</v>
       </c>
-      <c r="J5" s="7">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="L5" s="68">
+        <v>0</v>
+      </c>
+      <c r="M5" s="68">
+        <v>0</v>
+      </c>
+      <c r="N5" s="68">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="32"/>
+    <row r="10" spans="1:14">
+      <c r="A10" s="72"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="4">
-    <mergeCell ref="C1"/>
-    <mergeCell ref="D1"/>
     <mergeCell ref="E1"/>
     <mergeCell ref="F1"/>
+    <mergeCell ref="G1"/>
+    <mergeCell ref="H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:F5">
-    <cfRule type="cellIs" dxfId="3" priority="0" stopIfTrue="1" operator="greaterThan">
-      <formula>50</formula>
+  <conditionalFormatting sqref="B2:B5">
+    <cfRule type="cellIs" dxfId="0" priority="0" stopIfTrue="1" operator="greaterThan">
+      <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3025,7 +3438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I11"/>
@@ -3042,56 +3455,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28" customHeight="1">
-      <c r="B1" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="28" customHeight="1">
-      <c r="B2" s="48"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="48"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:9" ht="14" customHeight="1">
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7">
         <f>(C4*100)/13</f>
@@ -3124,7 +3537,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7">
         <f t="shared" ref="B5:D11" si="0">(C5*100)/13</f>
@@ -3157,7 +3570,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7">
         <f t="shared" si="0"/>
@@ -3190,7 +3603,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B7" s="7">
         <f t="shared" si="0"/>
@@ -3223,7 +3636,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="B8" s="7">
         <f t="shared" si="0"/>
@@ -3256,7 +3669,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B9" s="7">
         <f t="shared" si="0"/>
@@ -3289,7 +3702,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
@@ -3322,7 +3735,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="7" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
@@ -3364,7 +3777,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4:I11">
-    <cfRule type="cellIs" dxfId="2" priority="0" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="0" stopIfTrue="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3377,7 +3790,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M10"/>
@@ -3396,40 +3809,40 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1"/>
     <row r="2" spans="1:13" ht="28" customHeight="1">
-      <c r="A2" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="A2" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="43" thickBot="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="53"/>
       <c r="C3" s="20" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G3" s="8"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="22" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B4" s="10">
         <f t="shared" ref="B4:E10" si="0">(J4*100)/13</f>
@@ -3462,7 +3875,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="23" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
@@ -3495,7 +3908,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="23" t="s">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
@@ -3528,7 +3941,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="23" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
@@ -3561,7 +3974,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="23" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
@@ -3594,7 +4007,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="23" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
@@ -3627,7 +4040,7 @@
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B10" s="14">
         <f t="shared" si="0"/>
@@ -3667,12 +4080,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="K4:M10 F4:I10">
-    <cfRule type="cellIs" dxfId="1" priority="0" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="0" stopIfTrue="1" operator="greaterThan">
       <formula>60</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:E10">
-    <cfRule type="cellIs" dxfId="0" priority="0" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="0" stopIfTrue="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
